--- a/COVID-19 RIVM.xlsx
+++ b/COVID-19 RIVM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsiegerink\Desktop\huisarts en wetenschap COVID-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lumconline-my.sharepoint.com/personal/b_siegerink_lumc_nl/Documents/huisarts en wetenschap COVID-19/COVID19_admission_in_context/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7812BA7E-2680-464E-9532-14CF237EA5AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{7812BA7E-2680-464E-9532-14CF237EA5AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8A68C6AC-46A9-44DB-B136-7D0CDBC99789}"/>
   <bookViews>
-    <workbookView xWindow="9288" yWindow="2112" windowWidth="17280" windowHeight="9072" xr2:uid="{82075D84-8629-42B2-B57E-222B199C7729}"/>
+    <workbookView xWindow="5760" yWindow="792" windowWidth="17280" windowHeight="9072" xr2:uid="{82075D84-8629-42B2-B57E-222B199C7729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73137FA9-7BF3-47BF-A6A6-B84D23682C9F}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,10 +1080,10 @@
         <v>44466</v>
       </c>
       <c r="B58">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C58">
-        <v>11509</v>
+        <v>11545</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1091,10 +1091,10 @@
         <v>44473</v>
       </c>
       <c r="B59">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C59">
-        <v>16889</v>
+        <v>16907</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1102,10 +1102,10 @@
         <v>44480</v>
       </c>
       <c r="B60">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="C60">
-        <v>24695</v>
+        <v>24721</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1113,10 +1113,10 @@
         <v>44487</v>
       </c>
       <c r="B61">
-        <v>635</v>
+        <v>683</v>
       </c>
       <c r="C61">
-        <v>36575</v>
+        <v>36609</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1124,10 +1124,32 @@
         <v>44494</v>
       </c>
       <c r="B62">
-        <v>834</v>
+        <v>997</v>
       </c>
       <c r="C62">
-        <v>51888</v>
+        <v>52259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B63">
+        <v>1240</v>
+      </c>
+      <c r="C63">
+        <v>72993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B64">
+        <v>1390</v>
+      </c>
+      <c r="C64">
+        <v>104834</v>
       </c>
     </row>
   </sheetData>
